--- a/src/test/resources/excel/TestRunnerData.xlsx
+++ b/src/test/resources/excel/TestRunnerData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SeleniumAutomationFramework\SeleniumAutomation\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40517F0C-DE7C-4BE2-9A31-D629C9302AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47654D2B-005F-4843-917D-5959FCEEB27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="624" windowWidth="17280" windowHeight="8964" xr2:uid="{615EA467-9BE3-4B28-955F-7B2C4D6F2B82}"/>
+    <workbookView xWindow="2532" yWindow="552" windowWidth="17280" windowHeight="8964" xr2:uid="{615EA467-9BE3-4B28-955F-7B2C4D6F2B82}"/>
   </bookViews>
   <sheets>
     <sheet name="testRunner" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
   <si>
     <t>username</t>
   </si>
@@ -97,7 +97,13 @@
     <t>2</t>
   </si>
   <si>
-    <t>locker_out_user</t>
+    <t>browser</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>firefox</t>
   </si>
 </sst>
 </file>
@@ -450,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{023BC8D6-592E-4F39-8322-C4F955DC71A6}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -461,7 +467,7 @@
     <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -483,8 +489,11 @@
       <c r="G1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -506,8 +515,11 @@
       <c r="G2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -529,8 +541,11 @@
       <c r="G3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -552,8 +567,11 @@
       <c r="G4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -567,13 +585,16 @@
         <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="G5" t="s">
         <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
